--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -668,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -680,22 +680,22 @@
         <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
         <v>5.5</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -704,34 +704,34 @@
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="n">
         <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
@@ -768,36 +768,96 @@
           <t>Vancouver FC</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>26</v>
+      </c>
+      <c r="X3" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -831,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -852,71 +912,71 @@
         <v>2.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -951,94 +1011,94 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.35</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T5" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1240,7 +1300,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1444,36 +1504,90 @@
           <t>Uruguay Montevideo</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>23</v>
+      </c>
+      <c r="X12" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>120</v>
+      </c>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1506,36 +1620,90 @@
           <t>Colon</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.5</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>40</v>
+      </c>
+      <c r="X13" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>100</v>
+      </c>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1692,36 +1860,96 @@
           <t>Indy Eleven</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>26</v>
+      </c>
+      <c r="X16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
@@ -719,7 +719,7 @@
         <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>29</v>
@@ -769,94 +769,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="N3" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O3" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15</v>
+      </c>
+      <c r="V3" t="n">
         <v>9.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.5</v>
       </c>
       <c r="W3" t="n">
         <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AB3" t="n">
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE3" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>37</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -933,13 +933,13 @@
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -964,13 +964,13 @@
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1044,22 +1044,22 @@
         <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1083,19 +1083,19 @@
         <v>1250</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1505,88 +1505,88 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="U12" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
         <v>9.75</v>
       </c>
       <c r="W12" t="n">
+        <v>21</v>
+      </c>
+      <c r="X12" t="n">
         <v>23</v>
-      </c>
-      <c r="X12" t="n">
-        <v>22</v>
       </c>
       <c r="Y12" t="n">
         <v>45</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1736,36 +1736,90 @@
           <t>Maldonado</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>32</v>
+      </c>
+      <c r="X14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>110</v>
+      </c>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="AE14" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1861,94 +1915,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.72</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>2.67</v>
+        <v>2.32</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="P16" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="T16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -775,73 +775,73 @@
         <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
       </c>
       <c r="K3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V3" t="n">
         <v>9.5</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>15</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.75</v>
-      </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB3" t="n">
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF3" t="n">
         <v>18</v>
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1505,88 +1505,88 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N12" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="O12" t="n">
         <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V12" t="n">
         <v>9.75</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
         <v>45</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>150</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -769,94 +769,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="O3" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>30</v>
+      </c>
+      <c r="X3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
         <v>10</v>
       </c>
-      <c r="U3" t="n">
-        <v>14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>25</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
       <c r="AH3" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1318,36 +1318,84 @@
           <t>Harkemase Boys</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.72</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>14</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>20</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1380,36 +1428,84 @@
           <t>Kozakken Boys</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.25</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1621,21 +1717,21 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N13" t="n">
         <v>2.32</v>
@@ -1647,59 +1743,59 @@
         <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="U13" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="W13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="n">
         <v>50</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.25</v>
+        <v>9.25</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -1737,88 +1833,88 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.82</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.52</v>
       </c>
-      <c r="M14" t="n">
+      <c r="Q14" t="n">
         <v>2.22</v>
       </c>
-      <c r="N14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R14" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="U14" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="V14" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH14" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1915,13 +2011,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -1132,36 +1132,92 @@
           <t>Real Cundinamarca</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1194,36 +1250,90 @@
           <t>22 de Julio</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.75</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>120</v>
+      </c>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1256,36 +1366,92 @@
           <t>Atletico Vinotinto</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.6</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U8" t="n">
+        <v>13</v>
+      </c>
+      <c r="V8" t="n">
+        <v>10</v>
+      </c>
+      <c r="W8" t="n">
+        <v>32</v>
+      </c>
+      <c r="X8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1332,7 +1498,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="O9" t="n">
         <v>2.72</v>
@@ -1343,13 +1509,13 @@
         <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T9" t="n">
         <v>14.5</v>
       </c>
       <c r="U9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V9" t="n">
         <v>9.25</v>
@@ -1373,16 +1539,16 @@
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD9" t="n">
         <v>120</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>11.75</v>
@@ -1429,13 +1595,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1456,22 +1622,22 @@
         <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="V10" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W10" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>16.5</v>
@@ -1486,25 +1652,25 @@
         <v>40</v>
       </c>
       <c r="AD10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1717,33 +1883,33 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N13" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.32</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.27</v>
       </c>
       <c r="R13" t="n">
         <v>2.02</v>
@@ -1752,50 +1918,50 @@
         <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>9.25</v>
       </c>
-      <c r="AG13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -1833,88 +1999,88 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="N14" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
         <v>1.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="U14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
+        <v>55</v>
+      </c>
+      <c r="X14" t="n">
         <v>45</v>
-      </c>
-      <c r="X14" t="n">
-        <v>40</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA14" t="n">
         <v>6.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
         <v>5.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1948,36 +2114,90 @@
           <t>La Luz</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.65</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>19</v>
+      </c>
+      <c r="X15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>110</v>
+      </c>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="AE15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2050,7 +2270,7 @@
         <v>2.3</v>
       </c>
       <c r="T16" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U16" t="n">
         <v>15.5</v>
@@ -2062,7 +2282,7 @@
         <v>32</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>25</v>
@@ -2086,7 +2306,7 @@
         <v>10.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>6.5</v>
@@ -659,7 +659,7 @@
         <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -704,7 +704,7 @@
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
@@ -719,16 +719,16 @@
         <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -799,7 +799,7 @@
         <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R3" t="n">
         <v>1.7</v>
@@ -808,19 +808,19 @@
         <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V3" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
         <v>32</v>
@@ -841,22 +841,22 @@
         <v>500</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -900,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1133,33 +1133,33 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.98</v>
@@ -1171,49 +1171,49 @@
         <v>5.8</v>
       </c>
       <c r="U6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
         <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB6" t="n">
         <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>65</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1381,7 +1381,7 @@
         <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N8" t="n">
         <v>2.07</v>
@@ -1393,7 +1393,7 @@
         <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R8" t="n">
         <v>1.8</v>
@@ -1402,10 +1402,10 @@
         <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1420,10 +1420,10 @@
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
@@ -1435,13 +1435,13 @@
         <v>700</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>29</v>
@@ -1450,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="AJ8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1498,7 +1498,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="O9" t="n">
         <v>2.72</v>
@@ -1509,13 +1509,13 @@
         <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T9" t="n">
         <v>14.5</v>
       </c>
       <c r="U9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V9" t="n">
         <v>9.25</v>
@@ -1539,16 +1539,16 @@
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD9" t="n">
         <v>120</v>
       </c>
       <c r="AE9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>11.75</v>
@@ -1598,7 +1598,7 @@
         <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>2.62</v>
@@ -1611,21 +1611,21 @@
         <v>1.5</v>
       </c>
       <c r="O10" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="T10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V10" t="n">
         <v>9.25</v>
@@ -1637,28 +1637,28 @@
         <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="n">
         <v>200</v>
       </c>
       <c r="AE10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.25</v>
@@ -1667,10 +1667,10 @@
         <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1796,13 +1796,13 @@
         <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U12" t="n">
         <v>8.75</v>
@@ -1823,7 +1823,7 @@
         <v>6.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
         <v>20</v>
@@ -1833,16 +1833,16 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1912,16 +1912,16 @@
         <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
         <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V13" t="n">
         <v>13</v>
@@ -1930,38 +1930,38 @@
         <v>50</v>
       </c>
       <c r="X13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA13" t="n">
         <v>6.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
         <v>120</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG13" t="n">
         <v>9.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2025,62 +2025,62 @@
         <v>1.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R14" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
         <v>7.8</v>
       </c>
       <c r="U14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -2231,25 +2231,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="N16" t="n">
         <v>1.65</v>
@@ -2264,31 +2264,31 @@
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="T16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="U16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
         <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA16" t="n">
         <v>7</v>
@@ -2300,25 +2300,25 @@
         <v>45</v>
       </c>
       <c r="AD16" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH16" t="n">
         <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -808,22 +808,22 @@
         <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V3" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="W3" t="n">
+        <v>37</v>
+      </c>
+      <c r="X3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y3" t="n">
         <v>35</v>
-      </c>
-      <c r="X3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>32</v>
       </c>
       <c r="Z3" t="n">
         <v>8.25</v>
@@ -841,19 +841,19 @@
         <v>500</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -900,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1133,90 +1133,90 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="S6" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="T6" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="V6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="W6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1367,27 +1367,27 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="N8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>1.42</v>
@@ -1396,22 +1396,22 @@
         <v>2.47</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
         <v>7.9</v>
       </c>
       <c r="U8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1420,10 +1420,10 @@
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
@@ -1432,25 +1432,25 @@
         <v>75</v>
       </c>
       <c r="AD8" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1509,7 +1509,7 @@
         <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T9" t="n">
         <v>14.5</v>
@@ -1533,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
@@ -1548,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>11.75</v>
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1897,10 +1897,10 @@
         <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -1912,28 +1912,28 @@
         <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S13" t="n">
         <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z13" t="n">
         <v>7.2</v>
@@ -1942,26 +1942,26 @@
         <v>6.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>120</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG13" t="n">
         <v>9.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
         <v>1.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
         <v>2.1</v>
@@ -2034,13 +2034,13 @@
         <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
         <v>50</v>
@@ -2055,7 +2055,7 @@
         <v>6.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB14" t="n">
         <v>20</v>
@@ -2065,16 +2065,16 @@
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG14" t="n">
         <v>9.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>21</v>
@@ -2234,7 +2234,7 @@
         <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>2.35</v>
@@ -2270,10 +2270,10 @@
         <v>2.27</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>9.75</v>
@@ -2303,7 +2303,7 @@
         <v>300</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -823,13 +823,13 @@
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
         <v>8.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
@@ -853,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1133,45 +1133,45 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="V6" t="n">
         <v>8</v>
@@ -1180,22 +1180,22 @@
         <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="n">
         <v>600</v>
@@ -1207,7 +1207,7 @@
         <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
         <v>90</v>
@@ -1254,24 +1254,24 @@
         <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="N7" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1280,22 +1280,22 @@
         <v>2.55</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="V7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>11.75</v>
@@ -1304,10 +1304,10 @@
         <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB7" t="n">
         <v>23</v>
@@ -1315,24 +1315,26 @@
       <c r="AC7" t="n">
         <v>120</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>700</v>
+      </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1370,42 +1372,42 @@
         <v>2.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="N8" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T8" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1414,43 +1416,43 @@
         <v>30</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1883,21 +1885,21 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="N13" t="n">
         <v>2.25</v>
@@ -1912,56 +1914,56 @@
         <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T13" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="U13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V13" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
+        <v>60</v>
+      </c>
+      <c r="X13" t="n">
         <v>45</v>
       </c>
-      <c r="X13" t="n">
-        <v>37</v>
-      </c>
       <c r="Y13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
         <v>120</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2013,13 +2015,13 @@
         <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="N14" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
         <v>1.52</v>
@@ -2034,16 +2036,16 @@
         <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X14" t="n">
         <v>40</v>
@@ -2052,10 +2054,10 @@
         <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB14" t="n">
         <v>20</v>
@@ -2065,19 +2067,19 @@
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="n">
         <v>45</v>
@@ -2234,7 +2236,7 @@
         <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>2.35</v>
@@ -2270,10 +2272,10 @@
         <v>2.27</v>
       </c>
       <c r="T16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V16" t="n">
         <v>9.75</v>
@@ -2303,7 +2305,7 @@
         <v>300</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1136,87 +1136,87 @@
         <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="U6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W6" t="n">
         <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
@@ -1262,16 +1262,16 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="O7" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1280,16 +1280,16 @@
         <v>2.55</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="U7" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1298,43 +1298,43 @@
         <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>200</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1369,48 +1369,48 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="N8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T8" t="n">
         <v>8.25</v>
       </c>
       <c r="U8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W8" t="n">
         <v>30</v>
@@ -1422,37 +1422,37 @@
         <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AF8" t="n">
         <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1487,20 +1487,20 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="O9" t="n">
         <v>2.72</v>
@@ -1508,25 +1508,25 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="T9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="U9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="V9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>16.5</v>
@@ -1535,34 +1535,34 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>23</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1706,36 +1706,90 @@
           <t>Albion</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>18</v>
+      </c>
+      <c r="V11" t="n">
+        <v>13</v>
+      </c>
+      <c r="W11" t="n">
+        <v>55</v>
+      </c>
+      <c r="X11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>110</v>
+      </c>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1769,88 +1823,88 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.95</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.52</v>
       </c>
-      <c r="M12" t="n">
+      <c r="Q12" t="n">
         <v>2.22</v>
       </c>
-      <c r="N12" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R12" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="U12" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="V12" t="n">
         <v>9.75</v>
       </c>
       <c r="W12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
         <v>45</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2001,13 +2055,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2015,7 +2069,7 @@
         <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="N14" t="n">
         <v>2.35</v>
@@ -2024,28 +2078,28 @@
         <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X14" t="n">
         <v>40</v>
@@ -2054,7 +2108,7 @@
         <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA14" t="n">
         <v>6.3</v>
@@ -2063,23 +2117,23 @@
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
         <v>45</v>
@@ -2117,13 +2171,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2143,7 +2197,7 @@
         <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R15" t="n">
         <v>2.02</v>
@@ -2152,19 +2206,19 @@
         <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
         <v>40</v>
@@ -2173,32 +2227,32 @@
         <v>6.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
         <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -808,7 +808,7 @@
         <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U3" t="n">
         <v>16.5</v>
@@ -829,7 +829,7 @@
         <v>8.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
@@ -850,7 +850,7 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -1251,27 +1251,27 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N7" t="n">
         <v>1.62</v>
       </c>
       <c r="O7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1280,61 +1280,61 @@
         <v>2.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="U7" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="V7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1939,88 +1939,88 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="O13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.5</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>8.75</v>
+        <v>7.4</v>
       </c>
       <c r="U13" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="W13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
         <v>120</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2055,48 +2055,48 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="N14" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>50</v>
@@ -2105,35 +2105,35 @@
         <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>120</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF14" t="n">
         <v>8.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ14" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -808,7 +808,7 @@
         <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
         <v>16.5</v>
@@ -823,7 +823,7 @@
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="n">
         <v>8.25</v>
@@ -850,10 +850,10 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1707,21 +1707,21 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N11" t="n">
         <v>2.32</v>
@@ -1733,13 +1733,13 @@
         <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T11" t="n">
         <v>8.25</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA11" t="n">
         <v>5.9</v>
@@ -1782,10 +1782,10 @@
         <v>9.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="n">
         <v>40</v>
@@ -2055,33 +2055,33 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="N14" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R14" t="n">
         <v>2.12</v>
@@ -2090,10 +2090,10 @@
         <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="U14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
@@ -2108,32 +2108,32 @@
         <v>65</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
         <v>5.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
         <v>45</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
@@ -2299,7 +2299,7 @@
         <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
@@ -2326,7 +2326,7 @@
         <v>2.27</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U16" t="n">
         <v>14.5</v>
@@ -2344,10 +2344,10 @@
         <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
@@ -2359,7 +2359,7 @@
         <v>300</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-04.xlsx
@@ -659,7 +659,7 @@
         <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -668,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1268,10 +1268,10 @@
         <v>3.55</v>
       </c>
       <c r="N7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1280,61 +1280,61 @@
         <v>2.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>7.2</v>
+        <v>8.75</v>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="X7" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -1369,33 +1369,33 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.55</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R8" t="n">
         <v>1.75</v>
@@ -1404,55 +1404,55 @@
         <v>1.87</v>
       </c>
       <c r="T8" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
+        <v>25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="n">
         <v>30</v>
       </c>
-      <c r="X8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>32</v>
-      </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="n">
         <v>600</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1600,34 +1600,34 @@
         <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O10" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="U10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V10" t="n">
         <v>9.25</v>
@@ -1636,43 +1636,43 @@
         <v>23</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE10" t="n">
         <v>11.75</v>
       </c>
-      <c r="AC10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1823,13 +1823,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1837,74 +1837,74 @@
         <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="N12" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T12" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="V12" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>120</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
